--- a/SeniorProject/static/uploads/example.xlsx
+++ b/SeniorProject/static/uploads/example.xlsx
@@ -940,14 +940,14 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
